--- a/analysis/article_kcounts_merged.xlsx
+++ b/analysis/article_kcounts_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kz-qandy-qantar\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A86655-5F25-4197-859B-A109AC23D48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55866BB6-0446-4363-897F-10508D311D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="520" windowWidth="15210" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1937,7 +1937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,6 +1949,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1983,16 +1991,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2295,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="C514" sqref="C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15300,7 +15311,7 @@
       <c r="B407" t="s">
         <v>166</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D407">
@@ -18724,7 +18735,7 @@
       <c r="B514" t="s">
         <v>291</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="2" t="s">
         <v>590</v>
       </c>
       <c r="D514">
@@ -19742,12 +19753,16 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J546">
-    <sortCondition ref="D2:D546"/>
-    <sortCondition ref="E2:E546"/>
-    <sortCondition ref="G2:G546"/>
-    <sortCondition descending="1" ref="I2:I546"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J545">
+    <sortCondition ref="D2:D545"/>
+    <sortCondition ref="E2:E545"/>
+    <sortCondition ref="G2:G545"/>
+    <sortCondition descending="1" ref="I2:I545"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C407" r:id="rId1" xr:uid="{B8A47C81-430E-4445-8BED-85E832342E35}"/>
+    <hyperlink ref="C514" r:id="rId2" xr:uid="{58668E40-A2EC-4C03-8420-B5A427CE7F58}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>